--- a/Excel/export.xlsx
+++ b/Excel/export.xlsx
@@ -1916,6 +1916,9 @@
       <c r="GL3" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO3" t="s">
+        <v>16</v>
+      </c>
       <c r="JR3" s="9" t="n"/>
       <c r="JS3" s="9" t="n"/>
       <c r="JT3" s="9" t="n"/>
@@ -2066,6 +2069,9 @@
       <c r="GL4" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="HO4" t="s">
+        <v>16</v>
+      </c>
       <c r="JR4" s="9" t="n"/>
       <c r="JS4" s="9" t="n"/>
       <c r="JT4" s="9" t="n"/>
@@ -2216,6 +2222,9 @@
       <c r="GL5" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO5" t="s">
+        <v>16</v>
+      </c>
       <c r="JR5" s="9" t="n"/>
       <c r="JS5" s="9" t="n"/>
       <c r="JT5" s="9" t="n"/>
@@ -2366,6 +2375,9 @@
       <c r="GL6" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO6" t="s">
+        <v>16</v>
+      </c>
       <c r="JR6" s="9" t="n"/>
       <c r="JS6" s="9" t="n"/>
       <c r="JT6" s="9" t="n"/>
@@ -2516,6 +2528,9 @@
       <c r="GL7" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO7" t="s">
+        <v>16</v>
+      </c>
       <c r="JR7" s="9" t="n"/>
       <c r="JS7" s="9" t="n"/>
       <c r="JT7" s="9" t="n"/>
@@ -2666,6 +2681,9 @@
       <c r="GL8" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO8" t="s">
+        <v>16</v>
+      </c>
       <c r="JR8" s="9" t="n"/>
       <c r="JS8" s="9" t="n"/>
       <c r="JT8" s="9" t="n"/>
@@ -2816,6 +2834,9 @@
       <c r="GL9" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO9" t="s">
+        <v>16</v>
+      </c>
       <c r="JR9" s="9" t="n"/>
       <c r="JS9" s="9" t="n"/>
       <c r="JT9" s="9" t="n"/>
@@ -2969,6 +2990,9 @@
       <c r="GM10" t="s">
         <v>18</v>
       </c>
+      <c r="HO10" t="s">
+        <v>16</v>
+      </c>
       <c r="JR10" s="9" t="n"/>
       <c r="JS10" s="9" t="n"/>
       <c r="JT10" s="9" t="n"/>
@@ -3119,6 +3143,9 @@
       <c r="GL11" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="HO11" t="s">
+        <v>16</v>
+      </c>
       <c r="JR11" s="9" t="n"/>
       <c r="JS11" s="9" t="n"/>
       <c r="JT11" s="9" t="n"/>
@@ -3270,6 +3297,9 @@
       <c r="GL12" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="HO12" t="s">
+        <v>16</v>
+      </c>
       <c r="JR12" s="9" t="n"/>
       <c r="JS12" s="9" t="n"/>
       <c r="JT12" s="9" t="n"/>
@@ -3420,6 +3450,9 @@
       <c r="GL13" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO13" t="s">
+        <v>16</v>
+      </c>
       <c r="JR13" s="9" t="n"/>
       <c r="JS13" s="9" t="n"/>
       <c r="JT13" s="9" t="n"/>
@@ -3570,6 +3603,9 @@
       <c r="GL14" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO14" t="s">
+        <v>16</v>
+      </c>
       <c r="JR14" s="9" t="n"/>
       <c r="JS14" s="9" t="n"/>
       <c r="JT14" s="9" t="n"/>
@@ -3720,6 +3756,9 @@
       <c r="GL15" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO15" t="s">
+        <v>16</v>
+      </c>
       <c r="JR15" s="9" t="n"/>
       <c r="JS15" s="9" t="n"/>
       <c r="JT15" s="9" t="n"/>
@@ -3870,6 +3909,9 @@
       <c r="GL16" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO16" t="s">
+        <v>16</v>
+      </c>
       <c r="JR16" s="9" t="n"/>
       <c r="JS16" s="9" t="n"/>
       <c r="JT16" s="9" t="n"/>
@@ -4020,6 +4062,9 @@
       <c r="GL17" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO17" t="s">
+        <v>16</v>
+      </c>
       <c r="JR17" s="9" t="n"/>
       <c r="JS17" s="9" t="n"/>
       <c r="JT17" s="9" t="n"/>
@@ -4173,6 +4218,9 @@
       <c r="GL18" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO18" t="s">
+        <v>16</v>
+      </c>
       <c r="JR18" s="9" t="n"/>
       <c r="JS18" s="9" t="n"/>
       <c r="JT18" s="9" t="n"/>
@@ -4323,6 +4371,9 @@
       <c r="GL19" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO19" t="s">
+        <v>16</v>
+      </c>
       <c r="JR19" s="9" t="n"/>
       <c r="JS19" s="9" t="n"/>
       <c r="JT19" s="9" t="n"/>
@@ -4473,6 +4524,9 @@
       <c r="GL20" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO20" t="s">
+        <v>16</v>
+      </c>
       <c r="JR20" s="9" t="n"/>
       <c r="JS20" s="9" t="n"/>
       <c r="JT20" s="9" t="n"/>
@@ -4623,6 +4677,9 @@
       <c r="GL21" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO21" t="s">
+        <v>16</v>
+      </c>
       <c r="JR21" s="9" t="n"/>
       <c r="JS21" s="9" t="n"/>
       <c r="JT21" s="9" t="n"/>
@@ -4773,6 +4830,9 @@
       <c r="GL22" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO22" t="s">
+        <v>16</v>
+      </c>
       <c r="JR22" s="9" t="n"/>
       <c r="JS22" s="9" t="n"/>
       <c r="JT22" s="9" t="n"/>
@@ -4923,6 +4983,9 @@
       <c r="GL23" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO23" t="s">
+        <v>16</v>
+      </c>
       <c r="JR23" s="9" t="n"/>
       <c r="JS23" s="9" t="n"/>
       <c r="JT23" s="9" t="n"/>
@@ -5073,6 +5136,9 @@
       <c r="GL24" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO24" t="s">
+        <v>16</v>
+      </c>
       <c r="JR24" s="9" t="n"/>
       <c r="JS24" s="9" t="n"/>
       <c r="JT24" s="9" t="n"/>
@@ -5223,6 +5289,9 @@
       <c r="GL25" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO25" t="s">
+        <v>16</v>
+      </c>
       <c r="JR25" s="9" t="n"/>
       <c r="JS25" s="9" t="n"/>
       <c r="JT25" s="9" t="n"/>
@@ -5371,6 +5440,9 @@
       <c r="EX26" s="9" t="n"/>
       <c r="FE26" s="9" t="n"/>
       <c r="GL26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="HO26" t="s">
         <v>16</v>
       </c>
       <c r="JR26" s="9" t="n"/>
@@ -5698,7 +5770,9 @@
       <c r="HL27" s="16" t="n"/>
       <c r="HM27" s="16" t="n"/>
       <c r="HN27" s="16" t="n"/>
-      <c r="HO27" s="16" t="n"/>
+      <c r="HO27" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="HP27" s="16" t="n"/>
       <c r="HQ27" s="16" t="n"/>
       <c r="HR27" s="16" t="n"/>
@@ -6078,7 +6152,9 @@
       <c r="HL28" s="16" t="n"/>
       <c r="HM28" s="16" t="n"/>
       <c r="HN28" s="16" t="n"/>
-      <c r="HO28" s="16" t="n"/>
+      <c r="HO28" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="HP28" s="16" t="n"/>
       <c r="HQ28" s="16" t="n"/>
       <c r="HR28" s="16" t="n"/>
@@ -6283,6 +6359,9 @@
       <c r="GL29" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO29" t="s">
+        <v>16</v>
+      </c>
       <c r="JR29" s="9" t="n"/>
       <c r="JS29" s="9" t="n"/>
       <c r="JT29" s="9" t="n"/>
@@ -6434,6 +6513,9 @@
       <c r="GL30" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO30" t="s">
+        <v>16</v>
+      </c>
       <c r="JR30" s="9" t="n"/>
       <c r="JS30" s="9" t="n"/>
       <c r="JT30" s="9" t="n"/>
@@ -6584,6 +6666,9 @@
       <c r="GL31" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO31" t="s">
+        <v>16</v>
+      </c>
       <c r="JR31" s="9" t="n"/>
       <c r="JS31" s="9" t="n"/>
       <c r="JT31" s="9" t="n"/>
@@ -6734,6 +6819,9 @@
       <c r="GL32" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO32" t="s">
+        <v>16</v>
+      </c>
       <c r="JR32" s="9" t="n"/>
       <c r="JS32" s="9" t="n"/>
       <c r="JT32" s="9" t="n"/>
@@ -6884,6 +6972,9 @@
       <c r="GL33" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO33" t="s">
+        <v>16</v>
+      </c>
       <c r="JR33" s="9" t="n"/>
       <c r="JS33" s="9" t="n"/>
       <c r="JT33" s="9" t="n"/>
@@ -7034,6 +7125,9 @@
       <c r="GL34" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO34" t="s">
+        <v>16</v>
+      </c>
       <c r="JR34" s="9" t="n"/>
       <c r="JS34" s="9" t="n"/>
       <c r="JT34" s="9" t="n"/>
@@ -7184,6 +7278,9 @@
       <c r="GL35" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO35" t="s">
+        <v>16</v>
+      </c>
       <c r="JR35" s="9" t="n"/>
       <c r="JS35" s="9" t="n"/>
       <c r="JT35" s="9" t="n"/>
@@ -7334,6 +7431,9 @@
       <c r="GL36" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO36" t="s">
+        <v>16</v>
+      </c>
       <c r="JR36" s="9" t="n"/>
       <c r="JS36" s="9" t="n"/>
       <c r="JT36" s="9" t="n"/>
@@ -7484,6 +7584,9 @@
       <c r="GL37" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO37" t="s">
+        <v>16</v>
+      </c>
       <c r="JR37" s="9" t="n"/>
       <c r="JS37" s="9" t="n"/>
       <c r="JT37" s="9" t="n"/>
@@ -7634,6 +7737,9 @@
       <c r="GL38" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO38" t="s">
+        <v>16</v>
+      </c>
       <c r="JR38" s="9" t="n"/>
       <c r="JS38" s="9" t="n"/>
       <c r="JT38" s="9" t="n"/>
@@ -7784,6 +7890,9 @@
       <c r="GL39" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO39" t="s">
+        <v>16</v>
+      </c>
       <c r="JR39" s="9" t="n"/>
       <c r="JS39" s="9" t="n"/>
       <c r="JT39" s="9" t="n"/>
@@ -7934,6 +8043,9 @@
       <c r="GL40" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO40" t="s">
+        <v>16</v>
+      </c>
       <c r="JR40" s="9" t="n"/>
       <c r="JS40" s="9" t="n"/>
       <c r="JT40" s="9" t="n"/>
@@ -8084,6 +8196,9 @@
       <c r="GL41" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO41" t="s">
+        <v>16</v>
+      </c>
       <c r="JR41" s="9" t="n"/>
       <c r="JS41" s="9" t="n"/>
       <c r="JT41" s="9" t="n"/>
@@ -8234,6 +8349,9 @@
       <c r="GL42" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO42" t="s">
+        <v>16</v>
+      </c>
       <c r="JR42" s="9" t="n"/>
       <c r="JS42" s="9" t="n"/>
       <c r="JT42" s="9" t="n"/>
@@ -8384,6 +8502,9 @@
       <c r="GL43" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO43" t="s">
+        <v>16</v>
+      </c>
       <c r="JR43" s="9" t="n"/>
       <c r="JS43" s="9" t="n"/>
       <c r="JT43" s="9" t="n"/>
@@ -8534,6 +8655,9 @@
       <c r="GL44" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO44" t="s">
+        <v>16</v>
+      </c>
       <c r="JR44" s="9" t="n"/>
       <c r="JS44" s="9" t="n"/>
       <c r="JT44" s="9" t="n"/>
@@ -8684,6 +8808,9 @@
       <c r="GL45" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO45" t="s">
+        <v>16</v>
+      </c>
       <c r="JR45" s="9" t="n"/>
       <c r="JS45" s="9" t="n"/>
       <c r="JT45" s="9" t="n"/>
@@ -8834,6 +8961,9 @@
       <c r="GL46" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO46" t="s">
+        <v>16</v>
+      </c>
       <c r="JR46" s="9" t="n"/>
       <c r="JS46" s="9" t="n"/>
       <c r="JT46" s="9" t="n"/>
@@ -8984,6 +9114,9 @@
       <c r="GL47" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO47" t="s">
+        <v>16</v>
+      </c>
       <c r="JR47" s="9" t="n"/>
       <c r="JS47" s="9" t="n"/>
       <c r="JT47" s="9" t="n"/>
@@ -9134,6 +9267,9 @@
       <c r="GL48" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO48" t="s">
+        <v>16</v>
+      </c>
       <c r="JR48" s="9" t="n"/>
       <c r="JS48" s="9" t="n"/>
       <c r="JT48" s="9" t="n"/>
@@ -9284,6 +9420,9 @@
       <c r="GL49" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="HO49" t="s">
+        <v>16</v>
+      </c>
       <c r="JR49" s="9" t="n"/>
       <c r="JS49" s="9" t="n"/>
       <c r="JT49" s="9" t="n"/>
@@ -9432,6 +9571,9 @@
       <c r="EX50" s="9" t="n"/>
       <c r="FE50" s="9" t="n"/>
       <c r="GL50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="HO50" t="s">
         <v>16</v>
       </c>
       <c r="JR50" s="9" t="n"/>
@@ -9759,7 +9901,9 @@
       <c r="HL51" s="16" t="n"/>
       <c r="HM51" s="16" t="n"/>
       <c r="HN51" s="16" t="n"/>
-      <c r="HO51" s="16" t="n"/>
+      <c r="HO51" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="HP51" s="16" t="n"/>
       <c r="HQ51" s="16" t="n"/>
       <c r="HR51" s="16" t="n"/>
@@ -10139,7 +10283,9 @@
       <c r="HL52" s="16" t="n"/>
       <c r="HM52" s="16" t="n"/>
       <c r="HN52" s="16" t="n"/>
-      <c r="HO52" s="16" t="n"/>
+      <c r="HO52" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="HP52" s="16" t="n"/>
       <c r="HQ52" s="16" t="n"/>
       <c r="HR52" s="16" t="n"/>
@@ -10344,6 +10490,9 @@
       <c r="EX53" s="9" t="n"/>
       <c r="FE53" s="9" t="n"/>
       <c r="GL53" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="HO53" t="s">
         <v>16</v>
       </c>
     </row>
